--- a/Nilm_project_V2/Lista_elementos_PCB.xlsx
+++ b/Nilm_project_V2/Lista_elementos_PCB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PCB_ESP_CON_USB\Nilm_project_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B9147D-3C6A-4421-AF2F-110A6BF35BB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4A36F6-4260-4A4E-B926-69789359B1B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C569EA13-9E1A-4641-A49C-E2C94A5316D6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
   <si>
     <t>CANTIDAD</t>
   </si>
@@ -47,9 +47,6 @@
     <t>LISTA ELEMENTOS PCB NILM-UIS</t>
   </si>
   <si>
-    <t>LM1117 - 3.3 V</t>
-  </si>
-  <si>
     <t>SOT-223</t>
   </si>
   <si>
@@ -68,15 +65,9 @@
     <t>32-S</t>
   </si>
   <si>
-    <t>CAPACITOR 0.1 uF</t>
-  </si>
-  <si>
     <t>CAPACITOR 100 uF</t>
   </si>
   <si>
-    <t>CAPACITOR 4.7 uF</t>
-  </si>
-  <si>
     <t xml:space="preserve">PULSADOR </t>
   </si>
   <si>
@@ -107,9 +98,6 @@
     <t>GM-QFN28</t>
   </si>
   <si>
-    <t>RESISTENCIA 4.7K</t>
-  </si>
-  <si>
     <t>SOT-95</t>
   </si>
   <si>
@@ -119,9 +107,6 @@
     <t>SOT-143</t>
   </si>
   <si>
-    <t>PUERTO MICRO USB B 2.0</t>
-  </si>
-  <si>
     <t>REGLETA DE PINES</t>
   </si>
   <si>
@@ -131,44 +116,102 @@
     <t>CAPACITOR 10 uF</t>
   </si>
   <si>
-    <t>LISTA ELEMENTOS PCB NILM-UIS FALTANTES</t>
-  </si>
-  <si>
-    <t>YA</t>
-  </si>
-  <si>
     <t>TPD2S017</t>
   </si>
   <si>
     <t>BORNER DE 2 PUESTOS</t>
   </si>
   <si>
-    <t>NO HAY</t>
-  </si>
-  <si>
     <t>JUMPERS CON SUJETADOR</t>
   </si>
   <si>
-    <t>ENVIO</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>DIDACTICAS</t>
-  </si>
-  <si>
-    <t>DIGIKEY</t>
-  </si>
-  <si>
-    <t>GRAN TOTAL</t>
+    <t>LISTA ELEMENTOS PEDIDO DIGIKEY</t>
+  </si>
+  <si>
+    <t>PRECIO</t>
+  </si>
+  <si>
+    <t>LED GREEN</t>
+  </si>
+  <si>
+    <t>LED RED</t>
+  </si>
+  <si>
+    <t>INA157U/2K5</t>
+  </si>
+  <si>
+    <t>SENSOR TEMPERATURA TMP275AIDR</t>
+  </si>
+  <si>
+    <t>8-SOIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESISTENCIA 5K </t>
+  </si>
+  <si>
+    <t>LM1117 - 3,3 V</t>
+  </si>
+  <si>
+    <t>CAPACITOR 0,1 uF</t>
+  </si>
+  <si>
+    <t>CAPACITOR 4,7 uF</t>
+  </si>
+  <si>
+    <t>RESISTENCIA 4,7K</t>
+  </si>
+  <si>
+    <t>PUERTO MICRO USB B 2,0</t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t>RESISTECNIAS 5K</t>
+  </si>
+  <si>
+    <t>CAPACIOTR 0.01UF</t>
+  </si>
+  <si>
+    <t>ENVIO USA - CASILLERO</t>
+  </si>
+  <si>
+    <t>ENVIO CASILLERO - COL</t>
+  </si>
+  <si>
+    <t>GRAN TOTAL USD</t>
+  </si>
+  <si>
+    <t>GRAN TOTAL COP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DÓLAR </t>
+  </si>
+  <si>
+    <t>TAXES</t>
+  </si>
+  <si>
+    <t>RESISTENCIA 1M</t>
+  </si>
+  <si>
+    <t>RESISTENCIA 10M</t>
+  </si>
+  <si>
+    <t>CAPACITOR 0.01UF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +235,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,12 +264,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -249,41 +311,16 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,6 +336,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,25 +364,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -637,36 +688,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9F9874-75CC-47D4-A49B-F62B545DB624}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="G1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="G1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -679,7 +732,7 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -688,557 +741,606 @@
       <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
+      <c r="G3" s="7">
+        <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J4" s="11">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G5" s="7">
+        <v>10</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7">
+        <v>4</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="12">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="7">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="11">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="7">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="11">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="I15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="7">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="9">
+        <v>10</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="4">
-        <v>50</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="11">
-        <v>12000</v>
-      </c>
-      <c r="L16" s="5">
-        <f>16*3400</f>
-        <v>54400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="11">
-        <v>18300</v>
-      </c>
-      <c r="L17" s="5">
-        <f>13.16*3400</f>
-        <v>44744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="17">
-        <f>K17</f>
-        <v>18300</v>
-      </c>
-      <c r="L18" s="18">
-        <f>SUM(L16:L17)</f>
-        <v>99144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>2</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J20" s="20">
+        <f>SUM(J3:J19)</f>
+        <v>36.289999999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="19">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="19">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="21">
+        <f>SUM(J20:J23)</f>
+        <v>64.97999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>3</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="21">
+        <f>J24*G27</f>
+        <v>259919.99999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>2</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="15">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
